--- a/similarities/split_global/harmonic_similarity_timestamps_152.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_152.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,766 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:22.850000', '0:00:26.110000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:03.770000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=3.77</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:08.080000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:18.675377', '0:00:23.261318')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=18.675377</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_178</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'D:7', 'Db:7', 'C:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'E:7', 'Eb:7', 'D:7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:15.820000', '0:01:20.050000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.757936', '0:00:09.439772')]</t>
+          <t>('0:02:09.380000', '0:02:14.380000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=75.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-178#t=2.757936']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db:7', 'Gb', 'E:dim7/b3']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C#:dim7']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:28.079297', '0:00:33.245736')]</t>
+          <t>('0:01:27.680000', '0:01:38.020000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:43.200000', '0:00:47.350000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=28.079297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=43.2']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:01.500000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:40.460000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.497838', '0:00:06.774988')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=0.497838']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+          <t>('0:00:47.680000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000'), ('0:00:00.380000', '0:00:03.700000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C#:maj', 'F#:min', 'C:dim7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:12.300000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:06.590000', '0:00:10.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=12.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:min7/b7', 'C:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:maj6', 'Eb']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.571000', '0:00:12.655000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:25.130000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=6.571']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=8.9']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
+          <t>('0:00:34.660000', '0:00:36.260000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.300000', '0:00:30.460000')]</t>
+          <t>('0:00:49.400000', '0:00:56.760000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=59.437845']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.66</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=21.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=49.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:59.680000', '0:01:05.780000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:33.100000', '0:01:51.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:00.380000', '0:00:43.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:02:27.580000', '0:03:02.300000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:min7', 'D:7', 'G:maj6']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:23.940000', '0:00:28.130000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:20.300000', '0:00:23.100000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=23.94</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:06.020000', '0:00:11.220000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:35.904784', '0:01:44.577437')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=6.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
